--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf17.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf13b-Tnfrsf17.xlsx
@@ -537,22 +537,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.054373</v>
+        <v>0.05524200000000001</v>
       </c>
       <c r="H2">
-        <v>0.163119</v>
+        <v>0.165726</v>
       </c>
       <c r="I2">
-        <v>0.006530015879180835</v>
+        <v>0.006851115624430413</v>
       </c>
       <c r="J2">
-        <v>0.006530015879180836</v>
+        <v>0.006851115624430412</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,10 +561,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1124936666666667</v>
+        <v>0.002913</v>
       </c>
       <c r="N2">
-        <v>0.337481</v>
+        <v>0.008739</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -573,16 +573,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.006116618137666667</v>
+        <v>0.000160919946</v>
       </c>
       <c r="R2">
-        <v>0.055049563239</v>
+        <v>0.001448279514</v>
       </c>
       <c r="S2">
-        <v>0.006530015879180835</v>
+        <v>0.006851115624430413</v>
       </c>
       <c r="T2">
-        <v>0.006530015879180836</v>
+        <v>0.006851115624430412</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>4.701634</v>
       </c>
       <c r="I3">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="J3">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,10 +623,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1124936666666667</v>
+        <v>0.002913</v>
       </c>
       <c r="N3">
-        <v>0.337481</v>
+        <v>0.008739</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1763013493282222</v>
+        <v>0.004565286614000001</v>
       </c>
       <c r="R3">
-        <v>1.586712143954</v>
+        <v>0.04108757952600001</v>
       </c>
       <c r="S3">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
       <c r="T3">
-        <v>0.1882168519798215</v>
+        <v>0.1943656285540788</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.849563</v>
+        <v>0.3059026666666667</v>
       </c>
       <c r="H4">
-        <v>2.548689</v>
+        <v>0.917708</v>
       </c>
       <c r="I4">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878803</v>
       </c>
       <c r="J4">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878802</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,10 +685,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1124936666666667</v>
+        <v>0.002913</v>
       </c>
       <c r="N4">
-        <v>0.337481</v>
+        <v>0.008739</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -697,16 +697,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.09557045693433332</v>
+        <v>0.000891094468</v>
       </c>
       <c r="R4">
-        <v>0.860134112409</v>
+        <v>0.008019850211999999</v>
       </c>
       <c r="S4">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878803</v>
       </c>
       <c r="T4">
-        <v>0.1020296816501666</v>
+        <v>0.03793806413878802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.115704</v>
+        <v>0.03313</v>
       </c>
       <c r="H5">
-        <v>0.347112</v>
+        <v>0.09939000000000001</v>
       </c>
       <c r="I5">
-        <v>0.01389566434231584</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="J5">
-        <v>0.01389566434231584</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,10 +747,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1124936666666667</v>
+        <v>0.002913</v>
       </c>
       <c r="N5">
-        <v>0.337481</v>
+        <v>0.008739</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.013015967208</v>
+        <v>9.650769000000001E-05</v>
       </c>
       <c r="R5">
-        <v>0.117143704872</v>
+        <v>0.0008685692100000001</v>
       </c>
       <c r="S5">
-        <v>0.01389566434231584</v>
+        <v>0.004108784269892103</v>
       </c>
       <c r="T5">
-        <v>0.01389566434231584</v>
+        <v>0.004108784269892103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.016919666666666</v>
+        <v>5.575577333333332</v>
       </c>
       <c r="H6">
-        <v>12.050759</v>
+        <v>16.726732</v>
       </c>
       <c r="I6">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="J6">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -809,10 +809,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1124936666666667</v>
+        <v>0.002913</v>
       </c>
       <c r="N6">
-        <v>0.337481</v>
+        <v>0.008739</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -821,16 +821,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.4518780220087777</v>
+        <v>0.016241656772</v>
       </c>
       <c r="R6">
-        <v>4.066902198078999</v>
+        <v>0.146174910948</v>
       </c>
       <c r="S6">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
       <c r="T6">
-        <v>0.4824186491223055</v>
+        <v>0.691483381912676</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.722855</v>
+        <v>0.526149</v>
       </c>
       <c r="H7">
-        <v>5.168565</v>
+        <v>1.578447</v>
       </c>
       <c r="I7">
-        <v>0.2069091370262096</v>
+        <v>0.06525302550013463</v>
       </c>
       <c r="J7">
-        <v>0.2069091370262097</v>
+        <v>0.06525302550013462</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1124936666666667</v>
+        <v>0.002913</v>
       </c>
       <c r="N7">
-        <v>0.337481</v>
+        <v>0.008739</v>
       </c>
       <c r="O7">
         <v>1</v>
@@ -883,16 +883,16 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.193810276085</v>
+        <v>0.001532672037</v>
       </c>
       <c r="R7">
-        <v>1.744292484765</v>
+        <v>0.013794048333</v>
       </c>
       <c r="S7">
-        <v>0.2069091370262096</v>
+        <v>0.06525302550013463</v>
       </c>
       <c r="T7">
-        <v>0.2069091370262097</v>
+        <v>0.06525302550013462</v>
       </c>
     </row>
   </sheetData>
